--- a/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">02.25.20</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+    <t xml:space="preserve">E7490</t>
   </si>
   <si>
     <t xml:space="preserve">E7420L</t>
@@ -195,16 +195,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I27"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
@@ -281,7 +281,8 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -329,7 +330,8 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -361,7 +363,8 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -393,7 +396,8 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -425,7 +429,8 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -457,7 +462,8 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -489,7 +495,8 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -521,7 +528,8 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -553,7 +561,8 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -585,7 +594,8 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -617,7 +627,8 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -649,7 +660,8 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -681,7 +693,8 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -713,7 +726,8 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -745,7 +759,8 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -777,7 +792,8 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -809,7 +825,8 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -841,7 +858,8 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -873,7 +891,8 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -905,7 +924,8 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -937,7 +957,8 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -969,7 +990,8 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1001,7 +1023,8 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1033,7 +1056,8 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1065,7 +1089,8 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1097,13 +1122,15 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">02.25.20</t>
   </si>
   <si>
-    <t xml:space="preserve">E7490</t>
+    <t xml:space="preserve">E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420L</t>
@@ -198,13 +198,13 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_02.25.20.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95602139-7036-2341-8ED5-050783D5843F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,86 +31,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">rnaDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnaPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnaSampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNADate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cDNAProtocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roboticS1Prep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1PrimerSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.18.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H.BROWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.25.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
+  <si>
+    <t>rnaDate</t>
+  </si>
+  <si>
+    <t>rnaPreparer</t>
+  </si>
+  <si>
+    <t>rnaSampleNumber</t>
+  </si>
+  <si>
+    <t>s1cDNADate</t>
+  </si>
+  <si>
+    <t>s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t>s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t>polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t>s1cDNAProtocol</t>
+  </si>
+  <si>
+    <t>roboticS1Prep</t>
+  </si>
+  <si>
+    <t>s1PrimerSeq</t>
+  </si>
+  <si>
+    <t>02.18.20</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>02.25.20</t>
+  </si>
+  <si>
+    <t>E7490L</t>
+  </si>
+  <si>
+    <t>E7420L</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,7 +119,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -132,83 +127,343 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
+    <col min="1" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -256,14 +511,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -272,7 +527,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -281,9 +536,8 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -305,14 +559,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -321,7 +575,7 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -330,22 +584,21 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -354,7 +607,7 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -363,22 +616,21 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -387,7 +639,7 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -396,22 +648,21 @@
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -420,7 +671,7 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -429,22 +680,21 @@
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -453,7 +703,7 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -462,22 +712,21 @@
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -486,7 +735,7 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -495,22 +744,21 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -519,7 +767,7 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -528,22 +776,21 @@
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -552,7 +799,7 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -561,22 +808,21 @@
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -585,7 +831,7 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -594,22 +840,21 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -618,7 +863,7 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -627,22 +872,21 @@
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -651,7 +895,7 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -660,22 +904,21 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -684,7 +927,7 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -693,22 +936,21 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -717,7 +959,7 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -726,22 +968,21 @@
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -750,7 +991,7 @@
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -759,22 +1000,21 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -783,7 +1023,7 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -792,22 +1032,21 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -816,7 +1055,7 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -825,22 +1064,21 @@
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -849,7 +1087,7 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -858,22 +1096,21 @@
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -882,7 +1119,7 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -891,22 +1128,21 @@
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -915,7 +1151,7 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -924,22 +1160,21 @@
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -948,7 +1183,7 @@
       <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -957,22 +1192,21 @@
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -981,7 +1215,7 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -990,22 +1224,21 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1014,7 +1247,7 @@
       <c r="E24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1023,22 +1256,21 @@
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1047,7 +1279,7 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1056,22 +1288,21 @@
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1080,7 +1311,7 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -1089,22 +1320,21 @@
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1113,7 +1343,7 @@
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1122,22 +1352,30 @@
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="4"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>